--- a/game/dataspace/ФОН/Мероприятия РиЭНМ ФОН.xlsx
+++ b/game/dataspace/ФОН/Мероприятия РиЭНМ ФОН.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A8:P17"/>
+  <dimension ref="A8:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01.01.2020 0:00:00</t>
+          <t>17.01.2020 0:00:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02.07.2020 0:00:01</t>
+          <t>21.01.2020 0:00:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>03.07.2020 0:00:00</t>
+          <t>25.01.2020 0:00:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>04.07.2020 0:00:00</t>
+          <t>29.01.2020 0:00:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>05.07.2020 0:00:00</t>
+          <t>02.02.2020 0:00:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -784,7 +784,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>06.07.2020 0:00:00</t>
+          <t>06.02.2020 0:00:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>07.07.2020 0:00:00</t>
+          <t>10.02.2020 0:00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>08.07.2020 0:00:00</t>
+          <t>14.02.2020 0:00:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09.07.2020 0:00:00</t>
+          <t>18.02.2020 0:00:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>newPS5</t>
+          <t>newPS6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>39</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1040,6 +1040,162 @@
         </is>
       </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>22.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Строительство новой скважины</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>newPS7</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Насос 200-500</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>26.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Строительство новой скважины</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>newPS8</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2545</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Насос 200-500</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/game/dataspace/ФОН/Мероприятия РиЭНМ ФОН.xlsx
+++ b/game/dataspace/ФОН/Мероприятия РиЭНМ ФОН.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A8:P10"/>
+  <dimension ref="A8:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,22 +506,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ФОН</t>
+          <t>Проверка</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>17.01.2020 0:00:00</t>
+          <t>01.01.2017 0:00:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Строительство новой скважины</t>
+          <t>Установка пакера для ГДИС</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>P18</t>
+          <t>newP1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -531,30 +531,26 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2545</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2524</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>Нет</t>
@@ -562,7 +558,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -572,7 +568,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -589,17 +585,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>18.01.2020 0:00:00</t>
+          <t>03.02.2020 0:00:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Остановка скважины</t>
+          <t>Строительство новой скважины</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>PSF22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -607,10 +603,26 @@
           <t>Добывающая</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
@@ -625,15 +637,731 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>04.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Реперфорация</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PSF22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2500</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Насос 100-500</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>05.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Запуск скважины</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>PSF22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>06.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Остановка скважины</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Остановка скважины</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>08.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Остановка скважины</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>09.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Остановка скважины</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>PS2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>10.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Запуск скважины</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Запуск скважины</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Запуск скважины</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>P5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Запуск скважины</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>P6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Запуск скважины</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>PS2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ФОН</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>15.02.2020 0:00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Строительство новой скважины</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>P121</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/game/dataspace/ФОН/Мероприятия РиЭНМ ФОН.xlsx
+++ b/game/dataspace/ФОН/Мероприятия РиЭНМ ФОН.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A8:P22"/>
+  <dimension ref="A8:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,72 +429,72 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Дата мероприятия</t>
+          <t>Вид мероприятия</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Вид мероприятия</t>
+          <t>Название скважины</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Название скважины</t>
+          <t>Тип скважины</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Тип скважины</t>
+          <t>координата i</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>координата i</t>
+          <t>координата j</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>координата j</t>
+          <t>перфорация верх, м</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>перфорация верх, м</t>
+          <t>перфорация низ, м</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>перфорация низ, м</t>
+          <t>Контроль дебит</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Контроль дебит</t>
+          <t>Контроль Рзаб</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Контроль Рзаб</t>
+          <t>Тип насоса для установки</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Тип насоса для установки</t>
+          <t>Стоимость</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Стоимость</t>
+          <t>Стоимость насоса</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Стоимость насоса</t>
+          <t>День</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>День</t>
+          <t>Час</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -506,69 +506,59 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Проверка</t>
+          <t>ФОН</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01.01.2017 0:00:00</t>
+          <t>Строительство новой скважины</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Установка пакера для ГДИС</t>
+          <t>PSF22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>newP1</t>
+          <t>Добывающая</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Добывающая</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2545</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2524</t>
-        </is>
-      </c>
+          <t>2550</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -585,64 +575,46 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>03.02.2020 0:00:00</t>
+          <t>Реперфорация</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Строительство новой скважины</t>
+          <t>PSF22</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PSF22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2500</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>2550</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Насос 100-500</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -659,56 +631,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>04.02.2020 0:00:00</t>
+          <t>Запуск скважины</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Реперфорация</t>
+          <t>PSF22</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PSF22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2500</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>2550</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Насос 100-500</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -725,48 +679,38 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>05.02.2020 0:00:00</t>
+          <t>Остановка скважины</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Запуск скважины</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PSF22</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -783,48 +727,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>06.02.2020 0:00:00</t>
+          <t>Остановка скважины</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Остановка скважины</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -841,48 +775,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>07.02.2020 0:00:00</t>
+          <t>Остановка скважины</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Остановка скважины</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -899,48 +823,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>08.02.2020 0:00:00</t>
+          <t>Остановка скважины</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Остановка скважины</t>
+          <t>PS2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -957,48 +871,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09.02.2020 0:00:00</t>
+          <t>Запуск скважины</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Остановка скважины</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PS2</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1015,48 +919,38 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>10.02.2020 0:00:00</t>
+          <t>Запуск скважины</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Запуск скважины</t>
+          <t>P4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -1073,48 +967,38 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11.02.2020 0:00:00</t>
+          <t>Запуск скважины</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Запуск скважины</t>
+          <t>P5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -1131,48 +1015,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12.02.2020 0:00:00</t>
+          <t>Запуск скважины</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Запуск скважины</t>
+          <t>P6</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>P5</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -1189,48 +1063,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13.02.2020 0:00:00</t>
+          <t>Запуск скважины</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Запуск скважины</t>
+          <t>PS2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>P6</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -1247,48 +1111,54 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14.02.2020 0:00:00</t>
+          <t>Строительство новой скважины</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Запуск скважины</t>
+          <t>P121</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PS2</t>
+          <t>Добывающая</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2520</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2540</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Нет</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -1303,67 +1173,33 @@
           <t>ФОН</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>15.02.2020 0:00:00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Строительство новой скважины</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>P121</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Добывающая</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2520</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2540</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Добывающая</t>
         </is>
       </c>
     </row>
